--- a/public/data/files/DF Coaching Action Log.xlsx
+++ b/public/data/files/DF Coaching Action Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dftools\public\data\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66C4A1-D1AD-498A-B929-365D67909331}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08011F-703B-4E05-ACDA-63AD536A4A72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="316" xr2:uid="{15156C6E-52C1-504E-8ACC-DC1D823660A6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
   <si>
     <t>ITEMS</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Table Sorting</t>
   </si>
   <si>
-    <t>Change Password</t>
-  </si>
-  <si>
     <t>New Session Format</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>Updates for the new format of the coaching forms</t>
-  </si>
-  <si>
-    <t>The ability of the web application to change the user's password without using Admin Control Panel</t>
   </si>
   <si>
     <t>The ability of the web application to sort tables in the dashboard</t>
@@ -723,28 +717,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-1. Create form that let the user change his/her password without using Admin Control Panel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF2D55"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>Need to Do:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 1. Reformat the view of all type of sessions using the new format</t>
     </r>
   </si>
@@ -814,6 +786,37 @@
       <t xml:space="preserve">
 1. Redesign how the database record its signature data
 Note: Right now, we used checkbox that records only '0' (which is false) and '1' (which is false) that determines whether the agent signed his/her session</t>
+    </r>
+  </si>
+  <si>
+    <t>Feb 27</t>
+  </si>
+  <si>
+    <t>Change Password &amp; Photo</t>
+  </si>
+  <si>
+    <t>The ability of the web application to change the user's password and photo without using Admin Control Panel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Create forms that let the user change his/her password and photo without using Admin Control Panel</t>
     </r>
   </si>
 </sst>
@@ -1312,7 +1315,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1375,22 +1378,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="43.5">
@@ -1401,22 +1404,22 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="57.75">
@@ -1427,22 +1430,22 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="72">
@@ -1453,22 +1456,22 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="57.75">
@@ -1479,22 +1482,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="43.5">
@@ -1505,22 +1508,22 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="57.75">
@@ -1531,22 +1534,22 @@
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="57.75">
@@ -1557,22 +1560,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="57.75">
@@ -1583,13 +1586,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>13</v>
@@ -1598,7 +1601,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="57.75">
@@ -1609,22 +1612,22 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="43.5">
@@ -1635,22 +1638,22 @@
         <v>25</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="29.25">
@@ -1661,22 +1664,22 @@
         <v>26</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="72">
@@ -1687,22 +1690,22 @@
         <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="43.5">
@@ -1713,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
@@ -1728,7 +1731,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="72">
@@ -1739,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>12</v>
@@ -1754,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="72">
@@ -1762,13 +1765,13 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>14</v>
@@ -1780,7 +1783,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="29.25">
@@ -1788,13 +1791,13 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1802,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="57.75">
@@ -1813,7 +1816,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
@@ -1824,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="29.25">
@@ -1835,10 +1838,10 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1846,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="43.5">
@@ -1857,10 +1860,10 @@
         <v>31</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1868,7 +1871,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="43.5">
@@ -1876,21 +1879,25 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="10" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="29.25">
@@ -1898,13 +1905,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1912,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="57.75">
@@ -1920,10 +1927,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -1934,7 +1941,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="29.25">
@@ -1942,13 +1949,13 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1956,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="72">
@@ -1964,21 +1971,21 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/files/DF Coaching Action Log.xlsx
+++ b/public/data/files/DF Coaching Action Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dftools\public\data\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC08011F-703B-4E05-ACDA-63AD536A4A72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD71ADB-3626-4FC4-A15D-9AC99012C87A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="316" xr2:uid="{15156C6E-52C1-504E-8ACC-DC1D823660A6}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>ITEMS</t>
   </si>
@@ -818,6 +818,9 @@
       <t xml:space="preserve">
 1. Create forms that let the user change his/her password and photo without using Admin Control Panel</t>
     </r>
+  </si>
+  <si>
+    <t>Feb 28</t>
   </si>
 </sst>
 </file>
@@ -1314,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04083F9F-5CE8-5D48-ADE8-EAE697661B70}">
   <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1891,7 +1894,7 @@
         <v>101</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>9</v>

--- a/public/data/files/DF Coaching Action Log.xlsx
+++ b/public/data/files/DF Coaching Action Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dftools\public\data\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin.dizon\Documents\Projects\dftools\public\data\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD71ADB-3626-4FC4-A15D-9AC99012C87A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E93B3F8-96C7-43A4-BDEE-2AEB2D4A315B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="316" xr2:uid="{15156C6E-52C1-504E-8ACC-DC1D823660A6}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="316" xr2:uid="{15156C6E-52C1-504E-8ACC-DC1D823660A6}"/>
   </bookViews>
   <sheets>
     <sheet name="DF Coaching Action Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
   <si>
     <t>ITEMS</t>
   </si>
@@ -57,9 +57,6 @@
     <t>END DATE</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Web Application Optimization</t>
   </si>
   <si>
-    <t>Database Security</t>
-  </si>
-  <si>
-    <t>Form Action Validation</t>
-  </si>
-  <si>
     <t>Scorecard Data Integration</t>
   </si>
   <si>
@@ -174,18 +165,12 @@
     <t>The design of the page when viewing/printing the session</t>
   </si>
   <si>
-    <t>Multiple Roles and Logistic Executive Role</t>
-  </si>
-  <si>
     <t>The ability of the web application to manage different teams</t>
   </si>
   <si>
     <t>The speed and reliability of the web application</t>
   </si>
   <si>
-    <t>System vulnerabilities when instructing the web application to get or set some data</t>
-  </si>
-  <si>
     <t>Web application feedback form</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
   </si>
   <si>
     <t>Fixing overall reliability issues and bugs throughout the web application encountered during test run</t>
-  </si>
-  <si>
-    <t>Adding unique and dynamic roles to the database design</t>
   </si>
   <si>
     <t>Updates for the new format of the coaching forms</t>
@@ -721,49 +703,223 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF2D55"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>Need to Do:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Reintegrate data binding in Logistic Executive role because the worksheet of this role is different from all other agent that uses "RESOURCES" worksheet
-2. Add another level of database filtering logic for multiple roles</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF2D55"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>Need to Do:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Fix remaining bugs and errors found during the test runs</t>
-    </r>
+    <t>Feb 27</t>
+  </si>
+  <si>
+    <t>Change Password &amp; Photo</t>
+  </si>
+  <si>
+    <t>The ability of the web application to change the user's password and photo without using Admin Control Panel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Create forms that let the user change his/her password and photo without using Admin Control Panel</t>
+    </r>
+  </si>
+  <si>
+    <t>Feb 28</t>
+  </si>
+  <si>
+    <t>For Phase 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Fix remaining bugs and errors found
+2. Fix Teams Sessions for OH not displaying at all (caused by the new format update)
+3. Fix History not showing sessions of agents in OM and OH view (caused by the new format update)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Revise Teams Sessions for OM and OH not displaying any sessions (because the signee is up to supervisor only for new format)
+2. Revise and optimize dashboard load speed</t>
+    </r>
+  </si>
+  <si>
+    <t>Application Optimization</t>
+  </si>
+  <si>
+    <t>Weekly Report</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Reimplement dashboard layout
+2. Create additional database design to implement such reports</t>
+    </r>
+  </si>
+  <si>
+    <t>Counter Card Revision</t>
+  </si>
+  <si>
+    <t>Additional content for counter cards</t>
+  </si>
+  <si>
+    <t>The ability of the application to select and backtrack previous weeks and view its summary report</t>
+  </si>
+  <si>
+    <t>Fixing bugs and removing unnecessary functions or instructions throughout the application</t>
+  </si>
+  <si>
+    <t>Additional Session Type</t>
+  </si>
+  <si>
+    <t>Additional three session types introduced to system</t>
+  </si>
+  <si>
+    <t>Database Security &amp; Form Action Validation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Create additional database record for session types "Meeting", "Floorwalk" and "Heartbeat"
+2. Create additional view that displays the layout of the new three types</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF2D55"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>Need to Do:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Avenir Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Redesign the completed card to display the percentange rather than count
+2. Display the total pending for pending card</t>
+    </r>
+  </si>
+  <si>
+    <t>Apr 13</t>
+  </si>
+  <si>
+    <t>Apr 8</t>
+  </si>
+  <si>
+    <t>Apr 2</t>
+  </si>
+  <si>
+    <t>Apr 7</t>
+  </si>
+  <si>
+    <t>Apr 9</t>
+  </si>
+  <si>
+    <t>Apr 10</t>
+  </si>
+  <si>
+    <t>Apr 15</t>
+  </si>
+  <si>
+    <t>Apr 16</t>
+  </si>
+  <si>
+    <t>Apr 24</t>
+  </si>
+  <si>
+    <t>Apr 27</t>
+  </si>
+  <si>
+    <t>Apr 28</t>
+  </si>
+  <si>
+    <t>Apr 29</t>
+  </si>
+  <si>
+    <t>Apr 30</t>
   </si>
   <si>
     <r>
@@ -785,42 +941,8 @@
       </rPr>
       <t xml:space="preserve">
 1. Redesign how the database record its signature data
-Note: Right now, we used checkbox that records only '0' (which is false) and '1' (which is false) that determines whether the agent signed his/her session</t>
-    </r>
-  </si>
-  <si>
-    <t>Feb 27</t>
-  </si>
-  <si>
-    <t>Change Password &amp; Photo</t>
-  </si>
-  <si>
-    <t>The ability of the web application to change the user's password and photo without using Admin Control Panel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF2D55"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>Need to Do:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Avenir Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Create forms that let the user change his/her password and photo without using Admin Control Panel</t>
-    </r>
-  </si>
-  <si>
-    <t>Feb 28</t>
+Note: Right now, we used checkbox that records only '0' (which is false) and '1' (which is true) that determines whether the agent signed his/her session</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1315,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04083F9F-5CE8-5D48-ADE8-EAE697661B70}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
@@ -1336,7 +1458,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="30" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1378,25 +1500,25 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="43.5">
@@ -1404,25 +1526,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="57.75">
@@ -1430,25 +1552,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="72">
@@ -1456,25 +1578,25 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="57.75">
@@ -1482,25 +1604,25 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="43.5">
@@ -1508,25 +1630,25 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="57.75">
@@ -1534,25 +1656,25 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="57.75">
@@ -1560,25 +1682,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="57.75">
@@ -1586,155 +1708,155 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="57.75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="43.5">
       <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="43.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="29.25">
       <c r="B15" s="9">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="29.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="72">
       <c r="B16" s="9">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="72">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="43.5">
       <c r="B17" s="9">
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="43.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="72">
       <c r="B18" s="9">
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="72">
@@ -1742,76 +1864,80 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="43.5">
       <c r="B20" s="9">
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="29.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="72">
       <c r="B21" s="9">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="H21" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="57.75">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="29.25">
       <c r="B22" s="9">
         <v>18</v>
       </c>
@@ -1819,40 +1945,48 @@
         <v>29</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="H22" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="29.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="57.75">
       <c r="B23" s="9">
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="H23" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="43.5">
@@ -1860,21 +1994,25 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="H24" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="43.5">
@@ -1882,47 +2020,51 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="29.25">
+    </row>
+    <row r="26" spans="2:9" ht="43.5">
       <c r="B26" s="9">
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="H26" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="57.75">
@@ -1930,65 +2072,125 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="H27" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="29.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="57.75">
       <c r="B28" s="9">
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="H28" s="10" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="72">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="43.5">
       <c r="B29" s="9">
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="29.25">
+      <c r="B30" s="9">
+        <v>26</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="72">
+      <c r="B31" s="9">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>100</v>
+      <c r="I31" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
